--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1579559.072002382</v>
+        <v>1539595.789063188</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914464</v>
+        <v>426806.9758914461</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478713</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>230.6992324161055</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="E2" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.51112006510993</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.091998139296</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,28 +898,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>202.2946864288972</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.14565954003523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>190.0919981392954</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>58.39471844666272</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
     </row>
     <row r="9">
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1262,22 +1262,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>150.2142914581905</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>230.2275204755772</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597627</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>55.57546319093225</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>74.05354577132829</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>98.23891504710649</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>43.76331341951727</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405352</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407323</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>183.4401280146814</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>212.9889292666118</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597627</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>118.3282343629913</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>83.29896986725196</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405352</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>61.40230948893565</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>4.563500664549821</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.301217527894</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>292.5283283579306</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>221.644904491226</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1943,7 +1943,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>171.6563777081564</v>
       </c>
       <c r="U18" t="n">
-        <v>159.3388108552993</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>124.4544989107807</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>146.3125801111237</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>237.5294315152931</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>162.2483321813616</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>52.18293713757069</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.05682680499375</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>199.9063665998298</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>67.39702871698107</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>187.2771953980856</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2408,13 +2408,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>52.1829371375707</v>
       </c>
       <c r="G24" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2462,7 +2462,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>166.1469077980702</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.141326929176249</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>13.08993799274037</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>59.48642353016247</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>198.1199118778345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>75.3170546811963</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>136.64958867533</v>
@@ -2654,7 +2654,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>3.722778175975149</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.7951271546423</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2757,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>13.08993799274044</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>171.1956806695286</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>61.05805130267527</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2882,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>3.722778175975093</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
@@ -2927,7 +2927,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8957288909827</v>
+        <v>98.62068960932602</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.94963597461677</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>47.47529300550341</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>190.7492627619569</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>114.4444823157688</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2418970482362</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>3.722778175975093</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.33191364804614</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>47.239591316294</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>108.3027291048317</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>411.471260512776</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>62.7442152153677</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3356,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>17.79417311172712</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>25.18674943245864</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>109.4294613648248</v>
+        <v>38.71315398810345</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>43.54083879604783</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>328.1134458526673</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3593,10 +3593,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>123.3277290573763</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>35.33191364804597</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.3585974057387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>160.3464122475373</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>148.9977460153648</v>
       </c>
     </row>
     <row r="42">
@@ -3830,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>83.29896986725154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>108.0529342638478</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>154.1918883063999</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>74.05354577132783</v>
+        <v>61.76962367722231</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>123.3277290573763</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>47.3819131921399</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>62.87134828068413</v>
+        <v>63.82687605542464</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>509.804629028924</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>509.804629028924</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729609</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K2" t="n">
         <v>122.2961490211351</v>
@@ -4348,34 +4348,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106368</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424097</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424097</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219599</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219599</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219599</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>742.8341567219599</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>742.8341567219599</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>742.8341567219599</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>742.8341567219599</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>685.8223048580254</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C3" t="n">
-        <v>511.3692755768984</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D3" t="n">
-        <v>362.4348659156472</v>
+        <v>179.272730768454</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K3" t="n">
         <v>144.6387031680501</v>
@@ -4418,43 +4418,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252819</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141645</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973074</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973074</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106368</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635225</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635225</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635225</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635225</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635225</v>
       </c>
       <c r="W3" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635225</v>
       </c>
       <c r="X3" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635225</v>
       </c>
       <c r="Y3" t="n">
-        <v>735.8335372470253</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>46.59526811792571</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>85.78330631014789</v>
       </c>
       <c r="N4" t="n">
         <v>129.4741569655842</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4612,7 +4612,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>683.4224531698892</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C6" t="n">
-        <v>508.9694238887622</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D6" t="n">
-        <v>508.9694238887622</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>577.2332497330343</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>333.7844730889342</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>333.7844730889342</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>333.7844730889342</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>577.2332497330343</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y8" t="n">
-        <v>577.2332497330343</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>249.0657303232264</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C9" t="n">
-        <v>249.0657303232264</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D9" t="n">
-        <v>249.0657303232264</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>249.0657303232264</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="W9" t="n">
-        <v>456.9172305287593</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X9" t="n">
-        <v>249.0657303232264</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y9" t="n">
-        <v>249.0657303232264</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>958.5909773069948</v>
+        <v>1327.553494247406</v>
       </c>
       <c r="C11" t="n">
         <v>958.5909773069948</v>
@@ -5038,55 +5038,55 @@
         <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977592</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540049</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>1971.003775293977</v>
+        <v>2384.850795122171</v>
       </c>
       <c r="U11" t="n">
-        <v>1717.22408130586</v>
+        <v>2384.850795122171</v>
       </c>
       <c r="V11" t="n">
-        <v>1386.161193962289</v>
+        <v>2053.787907778601</v>
       </c>
       <c r="W11" t="n">
-        <v>1033.392538692175</v>
+        <v>1701.019252508486</v>
       </c>
       <c r="X11" t="n">
-        <v>958.5909773069948</v>
+        <v>1327.553494247406</v>
       </c>
       <c r="Y11" t="n">
-        <v>958.5909773069948</v>
+        <v>1327.553494247406</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439335</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7315422628066</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D12" t="n">
-        <v>398.7971326015553</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="E12" t="n">
-        <v>239.5596775960998</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F12" t="n">
-        <v>93.02511962298476</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G12" t="n">
-        <v>48.81975253256328</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505445</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404816</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L12" t="n">
-        <v>540.2677802593123</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M12" t="n">
         <v>1034.670495654875</v>
@@ -5144,28 +5144,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494433</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.24906426269</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640016</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256328</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256328</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D13" t="n">
-        <v>48.81975253256328</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256328</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371205</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
-        <v>206.6297039190409</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.100314134576</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420814</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.6740222801512</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>602.812870706947</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>450.1511924226982</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>234.1128111332515</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>48.81975253256328</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V13" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W13" t="n">
-        <v>48.81975253256328</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256328</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256328</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>540.4033113775685</v>
+        <v>1040.413449661277</v>
       </c>
       <c r="C14" t="n">
-        <v>540.4033113775685</v>
+        <v>1040.413449661277</v>
       </c>
       <c r="D14" t="n">
-        <v>540.4033113775685</v>
+        <v>682.1477510545267</v>
       </c>
       <c r="E14" t="n">
-        <v>540.4033113775685</v>
+        <v>682.1477510545267</v>
       </c>
       <c r="F14" t="n">
-        <v>540.4033113775685</v>
+        <v>682.1477510545267</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>263.9600851251004</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977592</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540049</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5296,34 +5296,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P14" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q14" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2190.618379962291</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>1971.003775293977</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U14" t="n">
-        <v>1717.22408130586</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="V14" t="n">
-        <v>1386.161193962289</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="W14" t="n">
-        <v>1033.392538692175</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="X14" t="n">
-        <v>659.926780431095</v>
+        <v>1817.152621701211</v>
       </c>
       <c r="Y14" t="n">
-        <v>540.4033113775685</v>
+        <v>1427.013289725399</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722.1845715439335</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7315422628066</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D15" t="n">
-        <v>398.7971326015553</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E15" t="n">
-        <v>239.5596775960998</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F15" t="n">
-        <v>155.419303992815</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G15" t="n">
-        <v>155.419303992815</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H15" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>81.93751399838828</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>318.2287647883254</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>697.3559079137187</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.953720827628</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346857</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2321.315195847366</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2121.953872694535</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494433</v>
+        <v>1893.77636876425</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.24906426269</v>
+        <v>1658.624260532507</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1404.386903804306</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1196.535403598773</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640016</v>
+        <v>988.7751048338188</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.9764913965095</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="C16" t="n">
-        <v>487.9764913965095</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="D16" t="n">
-        <v>487.9764913965095</v>
+        <v>201.3424427458148</v>
       </c>
       <c r="E16" t="n">
-        <v>487.9764913965095</v>
+        <v>53.42934916342168</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9764913965095</v>
+        <v>53.42934916342168</v>
       </c>
       <c r="G16" t="n">
-        <v>318.8762762199556</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>160.2351237728603</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
-        <v>93.68771932371205</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L16" t="n">
-        <v>206.6297039190409</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.100314134576</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420814</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.6740222801512</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>487.9764913965095</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>487.9764913965095</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>487.9764913965095</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>487.9764913965095</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V16" t="n">
-        <v>487.9764913965095</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W16" t="n">
-        <v>487.9764913965095</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X16" t="n">
-        <v>487.9764913965095</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="Y16" t="n">
-        <v>487.9764913965095</v>
+        <v>351.4590821581505</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2050.848294652352</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="C17" t="n">
-        <v>2050.848294652352</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="D17" t="n">
-        <v>1755.365134694847</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E17" t="n">
-        <v>1369.576882096602</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F17" t="n">
-        <v>958.5909773069948</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G17" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M17" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
         <v>1672.394424063531</v>
@@ -5533,34 +5533,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P17" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q17" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T17" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U17" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="V17" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="W17" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="X17" t="n">
-        <v>2440.987626628164</v>
+        <v>1817.152621701211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2050.848294652352</v>
+        <v>1593.268879790881</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.7751048338188</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="C18" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D18" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225004</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478937</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M18" t="n">
         <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
         <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2222.939999577549</v>
+        <v>2049.54971906426</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.991705784318</v>
+        <v>1821.372215133974</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.839597552575</v>
+        <v>1586.220106902231</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.602240824373</v>
+        <v>1331.98275017403</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.750740618841</v>
+        <v>1124.131249968497</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.990441853887</v>
+        <v>916.3709512035432</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256328</v>
+        <v>640.638169680758</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256328</v>
+        <v>640.638169680758</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256328</v>
+        <v>490.5215302684222</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256328</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256328</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J19" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K19" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L19" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>424.5997883913116</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>424.5997883913116</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U19" t="n">
-        <v>424.5997883913116</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V19" t="n">
-        <v>276.8093034305806</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W19" t="n">
-        <v>276.8093034305806</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X19" t="n">
-        <v>48.81975253256328</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256328</v>
+        <v>640.638169680758</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1503.710294552158</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="C20" t="n">
-        <v>1503.710294552158</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="D20" t="n">
-        <v>1503.710294552158</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E20" t="n">
-        <v>1117.922041953913</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F20" t="n">
-        <v>706.9361371643058</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G20" t="n">
-        <v>288.7484712348796</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H20" t="n">
         <v>48.81975253256327</v>
@@ -5758,13 +5758,13 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
@@ -5782,22 +5782,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U20" t="n">
-        <v>2221.37302195985</v>
+        <v>2277.100422404566</v>
       </c>
       <c r="V20" t="n">
-        <v>1890.310134616279</v>
+        <v>1946.037535060995</v>
       </c>
       <c r="W20" t="n">
-        <v>1890.310134616279</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="X20" t="n">
-        <v>1890.310134616279</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="Y20" t="n">
-        <v>1890.310134616279</v>
+        <v>1593.268879790881</v>
       </c>
     </row>
     <row r="21">
@@ -5819,10 +5819,10 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F21" t="n">
-        <v>239.5596775960993</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G21" t="n">
-        <v>101.5297900452609</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H21" t="n">
         <v>48.81975253256327</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.7974038739017</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C22" t="n">
-        <v>198.7974038739017</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D22" t="n">
-        <v>198.7974038739017</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E22" t="n">
-        <v>198.7974038739017</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F22" t="n">
-        <v>51.9074563759913</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G22" t="n">
-        <v>51.9074563759913</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
-        <v>51.9074563759913</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I22" t="n">
         <v>48.81975253256327</v>
@@ -5934,28 +5934,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>487.9764913965093</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="U22" t="n">
-        <v>198.7974038739017</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="V22" t="n">
-        <v>198.7974038739017</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="W22" t="n">
-        <v>198.7974038739017</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="X22" t="n">
-        <v>198.7974038739017</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.7974038739017</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>417.782269472975</v>
+        <v>1215.636466654791</v>
       </c>
       <c r="C23" t="n">
-        <v>48.81975253256327</v>
+        <v>1215.636466654791</v>
       </c>
       <c r="D23" t="n">
-        <v>48.81975253256327</v>
+        <v>857.3707680480402</v>
       </c>
       <c r="E23" t="n">
-        <v>48.81975253256327</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F23" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T23" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U23" t="n">
-        <v>2251.818742387673</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="V23" t="n">
-        <v>1920.755855044102</v>
+        <v>1605.775798630602</v>
       </c>
       <c r="W23" t="n">
-        <v>1567.987199773988</v>
+        <v>1605.775798630602</v>
       </c>
       <c r="X23" t="n">
-        <v>1194.521441512908</v>
+        <v>1605.775798630602</v>
       </c>
       <c r="Y23" t="n">
-        <v>804.3821095370968</v>
+        <v>1215.636466654791</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>293.4491915436533</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6068,25 +6068,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O24" t="n">
-        <v>2094.041580881031</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6095,25 +6095,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T24" t="n">
-        <v>2183.976407531844</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1955.798903601558</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.646795369816</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.409438641614</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
         <v>48.81975253256327</v>
@@ -6174,25 +6174,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T25" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U25" t="n">
-        <v>351.4590821581505</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="V25" t="n">
-        <v>351.4590821581505</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="W25" t="n">
-        <v>62.04191212118991</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>459.8056573221708</v>
+        <v>1576.443144133049</v>
       </c>
       <c r="C26" t="n">
-        <v>459.8056573221708</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D26" t="n">
-        <v>459.8056573221708</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E26" t="n">
-        <v>459.8056573221708</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H26" t="n">
         <v>48.81975253256327</v>
@@ -6238,7 +6238,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N26" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O26" t="n">
         <v>2037.925350935285</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2380.90033013305</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293977</v>
+        <v>2161.285725464737</v>
       </c>
       <c r="U26" t="n">
-        <v>1717.224081305859</v>
+        <v>1907.506031476619</v>
       </c>
       <c r="V26" t="n">
-        <v>1386.161193962289</v>
+        <v>1576.443144133049</v>
       </c>
       <c r="W26" t="n">
-        <v>1033.392538692174</v>
+        <v>1576.443144133049</v>
       </c>
       <c r="X26" t="n">
-        <v>659.9267804310946</v>
+        <v>1576.443144133049</v>
       </c>
       <c r="Y26" t="n">
-        <v>459.8056573221708</v>
+        <v>1576.443144133049</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>890.3999085640012</v>
+        <v>776.0740854914872</v>
       </c>
       <c r="C27" t="n">
-        <v>814.3220755526918</v>
+        <v>601.6210562103602</v>
       </c>
       <c r="D27" t="n">
-        <v>665.3876658914405</v>
+        <v>452.6866465491088</v>
       </c>
       <c r="E27" t="n">
-        <v>506.150210885985</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="F27" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2437.227244632229</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2276.829513525103</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2077.468190372272</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1849.290686441986</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1614.138578210243</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1359.901221482042</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1152.049721276509</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>944.2894225115551</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160.7340223857373</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C28" t="n">
         <v>48.81975253256327</v>
@@ -6405,31 +6405,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>450.1511924226979</v>
+        <v>627.4160100921315</v>
       </c>
       <c r="T28" t="n">
-        <v>450.1511924226979</v>
+        <v>627.4160100921315</v>
       </c>
       <c r="U28" t="n">
-        <v>450.1511924226979</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V28" t="n">
-        <v>450.1511924226979</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W28" t="n">
-        <v>160.7340223857373</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X28" t="n">
-        <v>160.7340223857373</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.7340223857373</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>858.1695216986611</v>
+        <v>1664.248454588231</v>
       </c>
       <c r="C29" t="n">
-        <v>858.1695216986611</v>
+        <v>1295.285937647819</v>
       </c>
       <c r="D29" t="n">
-        <v>858.1695216986611</v>
+        <v>937.0202390410684</v>
       </c>
       <c r="E29" t="n">
-        <v>858.1695216986611</v>
+        <v>551.2319864428241</v>
       </c>
       <c r="F29" t="n">
-        <v>858.1695216986611</v>
+        <v>551.2319864428241</v>
       </c>
       <c r="G29" t="n">
-        <v>439.9818557692349</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H29" t="n">
-        <v>110.4945518281949</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
@@ -6469,7 +6469,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M29" t="n">
         <v>1237.436361307048</v>
@@ -6481,34 +6481,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V29" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W29" t="n">
-        <v>1618.235120023863</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X29" t="n">
-        <v>1244.769361762783</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Y29" t="n">
-        <v>1244.769361762783</v>
+        <v>2050.848294652352</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>779.8344674874215</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C30" t="n">
-        <v>605.3814382062945</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D30" t="n">
-        <v>456.4470285450433</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E30" t="n">
-        <v>297.2095735395878</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F30" t="n">
-        <v>293.4491915436533</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G30" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
@@ -6566,28 +6566,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1853.051068437921</v>
+        <v>1923.961818233479</v>
       </c>
       <c r="V30" t="n">
-        <v>1617.898960206178</v>
+        <v>1688.809710001737</v>
       </c>
       <c r="W30" t="n">
-        <v>1363.661603477976</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X30" t="n">
-        <v>1155.810103272443</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y30" t="n">
-        <v>948.0498045074896</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C31" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J31" t="n">
         <v>48.81975253256327</v>
@@ -6648,25 +6648,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>640.6381696807582</v>
+        <v>592.6833282610578</v>
       </c>
       <c r="T31" t="n">
-        <v>640.6381696807582</v>
+        <v>592.6833282610578</v>
       </c>
       <c r="U31" t="n">
-        <v>640.6381696807582</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V31" t="n">
-        <v>385.9536814748714</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W31" t="n">
-        <v>385.9536814748714</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X31" t="n">
-        <v>385.9536814748714</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2071.607445452401</v>
+        <v>1354.512243669845</v>
       </c>
       <c r="C32" t="n">
-        <v>1702.64492851199</v>
+        <v>985.5497267294336</v>
       </c>
       <c r="D32" t="n">
-        <v>1344.379229905239</v>
+        <v>627.2840281226831</v>
       </c>
       <c r="E32" t="n">
-        <v>958.5909773069948</v>
+        <v>241.4957755244389</v>
       </c>
       <c r="F32" t="n">
-        <v>958.5909773069948</v>
+        <v>241.4957755244389</v>
       </c>
       <c r="G32" t="n">
-        <v>540.4033113775685</v>
+        <v>241.4957755244389</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540045</v>
@@ -6712,40 +6712,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N32" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O32" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T32" t="n">
-        <v>2325.387139440519</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U32" t="n">
-        <v>2071.607445452401</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V32" t="n">
-        <v>2071.607445452401</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.607445452401</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="X32" t="n">
-        <v>2071.607445452401</v>
+        <v>1744.651575645657</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.607445452401</v>
+        <v>1354.512243669845</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>744.1456658227286</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C33" t="n">
-        <v>569.6926365416016</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D33" t="n">
-        <v>420.7582268803504</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E33" t="n">
-        <v>261.5207718748949</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F33" t="n">
-        <v>114.9862139017798</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G33" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2405.29882496347</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2244.901093856344</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T33" t="n">
-        <v>2045.539770703513</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U33" t="n">
-        <v>1817.362266773227</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V33" t="n">
-        <v>1582.210158541485</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W33" t="n">
-        <v>1327.972801813283</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X33" t="n">
-        <v>1120.12130160775</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.3610028427966</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C34" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D34" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E34" t="n">
         <v>48.81975253256327</v>
@@ -6888,22 +6888,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V34" t="n">
-        <v>385.9536814748714</v>
+        <v>158.2164485980498</v>
       </c>
       <c r="W34" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X34" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1991.009791397003</v>
+        <v>1367.016752038667</v>
       </c>
       <c r="C35" t="n">
-        <v>1622.047274456592</v>
+        <v>1367.016752038667</v>
       </c>
       <c r="D35" t="n">
-        <v>1263.781575849841</v>
+        <v>1367.016752038667</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9933232515971</v>
+        <v>1367.016752038667</v>
       </c>
       <c r="F35" t="n">
-        <v>467.0074184619895</v>
+        <v>956.0308472490594</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
@@ -6943,7 +6943,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6973,16 +6973,16 @@
         <v>2440.987626628164</v>
       </c>
       <c r="V35" t="n">
-        <v>2440.987626628164</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W35" t="n">
-        <v>2440.987626628164</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X35" t="n">
-        <v>2377.609631461125</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y35" t="n">
-        <v>2377.609631461125</v>
+        <v>1367.016752038667</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439331</v>
+        <v>948.0498045074896</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628061</v>
+        <v>773.5967752263626</v>
       </c>
       <c r="D36" t="n">
-        <v>398.7971326015548</v>
+        <v>624.6623655651114</v>
       </c>
       <c r="E36" t="n">
-        <v>239.5596775960993</v>
+        <v>465.4249105596559</v>
       </c>
       <c r="F36" t="n">
-        <v>221.5857653620315</v>
+        <v>318.8903525865409</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>180.8604650357025</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>74.26091357545079</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N36" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2151.808539105556</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="C37" t="n">
-        <v>2151.808539105556</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="D37" t="n">
-        <v>2151.808539105556</v>
+        <v>235.8370420625356</v>
       </c>
       <c r="E37" t="n">
-        <v>2151.808539105556</v>
+        <v>87.92394848014251</v>
       </c>
       <c r="F37" t="n">
-        <v>2151.808539105556</v>
+        <v>87.92394848014251</v>
       </c>
       <c r="G37" t="n">
-        <v>2151.808539105556</v>
+        <v>87.92394848014251</v>
       </c>
       <c r="H37" t="n">
-        <v>2041.273729646137</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
-        <v>1901.925068395295</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>2151.808539105556</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V37" t="n">
-        <v>2151.808539105556</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W37" t="n">
-        <v>2151.808539105556</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X37" t="n">
-        <v>2151.808539105556</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="Y37" t="n">
-        <v>2151.808539105556</v>
+        <v>385.9536814748714</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>407.0854511393138</v>
+        <v>1014.891925964199</v>
       </c>
       <c r="C38" t="n">
-        <v>407.0854511393138</v>
+        <v>1014.891925964199</v>
       </c>
       <c r="D38" t="n">
-        <v>48.81975253256327</v>
+        <v>1014.891925964199</v>
       </c>
       <c r="E38" t="n">
-        <v>48.81975253256327</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I38" t="n">
         <v>48.81975253256327</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2327.916382646321</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.301777978008</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U38" t="n">
-        <v>1854.52208398989</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V38" t="n">
-        <v>1523.459196646319</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W38" t="n">
-        <v>1170.690541376205</v>
+        <v>1778.49701620109</v>
       </c>
       <c r="X38" t="n">
-        <v>797.2247831151255</v>
+        <v>1405.031257940011</v>
       </c>
       <c r="Y38" t="n">
-        <v>407.0854511393138</v>
+        <v>1014.891925964199</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C39" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D39" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E39" t="n">
-        <v>239.5596775960993</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F39" t="n">
-        <v>114.9862139017798</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G39" t="n">
         <v>114.9862139017798</v>
@@ -7265,40 +7265,40 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1714.953720827627</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O39" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T39" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W39" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X39" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y39" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1849.169209479969</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C40" t="n">
-        <v>1849.169209479969</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D40" t="n">
-        <v>1849.169209479969</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="E40" t="n">
-        <v>1849.169209479969</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="F40" t="n">
-        <v>1849.169209479969</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="G40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>2440.987626628164</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V40" t="n">
-        <v>2440.987626628164</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W40" t="n">
-        <v>2440.987626628164</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X40" t="n">
-        <v>2212.998075730146</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y40" t="n">
-        <v>2030.817674310208</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>776.0479680797255</v>
+        <v>1572.822125467577</v>
       </c>
       <c r="C41" t="n">
-        <v>407.0854511393138</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D41" t="n">
-        <v>48.81975253256327</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E41" t="n">
-        <v>48.81975253256327</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F41" t="n">
         <v>48.81975253256327</v>
@@ -7447,16 +7447,16 @@
         <v>2440.987626628164</v>
       </c>
       <c r="V41" t="n">
-        <v>2279.021553650853</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W41" t="n">
-        <v>1926.252898380739</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X41" t="n">
-        <v>1552.787140119659</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="Y41" t="n">
-        <v>1162.647808143847</v>
+        <v>1959.421965531699</v>
       </c>
     </row>
     <row r="42">
@@ -7478,10 +7478,10 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F42" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G42" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H42" t="n">
         <v>48.81975253256327</v>
@@ -7493,22 +7493,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N42" t="n">
-        <v>1746.002248079784</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O42" t="n">
-        <v>2158.207869599013</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2151.808539105556</v>
+        <v>157.964130576854</v>
       </c>
       <c r="C43" t="n">
-        <v>2151.808539105556</v>
+        <v>157.964130576854</v>
       </c>
       <c r="D43" t="n">
-        <v>2151.808539105556</v>
+        <v>157.964130576854</v>
       </c>
       <c r="E43" t="n">
-        <v>2151.808539105556</v>
+        <v>157.964130576854</v>
       </c>
       <c r="F43" t="n">
-        <v>2004.918591607645</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G43" t="n">
-        <v>2004.918591607645</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K43" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L43" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>2151.808539105556</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V43" t="n">
-        <v>2151.808539105556</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W43" t="n">
-        <v>2151.808539105556</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X43" t="n">
-        <v>2151.808539105556</v>
+        <v>157.964130576854</v>
       </c>
       <c r="Y43" t="n">
-        <v>2151.808539105556</v>
+        <v>157.964130576854</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>958.5909773069948</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="C44" t="n">
-        <v>958.5909773069948</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D44" t="n">
-        <v>958.5909773069948</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E44" t="n">
-        <v>958.5909773069948</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F44" t="n">
-        <v>958.5909773069948</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G44" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H44" t="n">
         <v>210.9160074365284</v>
@@ -7648,10 +7648,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697315</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540041</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T44" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U44" t="n">
-        <v>1717.224081305859</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V44" t="n">
-        <v>1386.161193962289</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W44" t="n">
-        <v>1033.392538692174</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="X44" t="n">
-        <v>958.5909773069948</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="Y44" t="n">
-        <v>958.5909773069948</v>
+        <v>1040.089578155562</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E45" t="n">
-        <v>239.5596775960993</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F45" t="n">
-        <v>114.9862139017798</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G45" t="n">
         <v>114.9862139017798</v>
@@ -7730,22 +7730,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7769,10 +7769,10 @@
         <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.151189158589</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>260.2392585196878</v>
+        <v>419.8455905372281</v>
       </c>
       <c r="C46" t="n">
-        <v>260.2392585196878</v>
+        <v>419.8455905372281</v>
       </c>
       <c r="D46" t="n">
-        <v>260.2392585196878</v>
+        <v>419.8455905372281</v>
       </c>
       <c r="E46" t="n">
-        <v>112.3261649372947</v>
+        <v>271.932496954835</v>
       </c>
       <c r="F46" t="n">
-        <v>112.3261649372947</v>
+        <v>271.932496954835</v>
       </c>
       <c r="G46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>260.2392585196878</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>260.2392585196878</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V46" t="n">
-        <v>260.2392585196878</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W46" t="n">
-        <v>260.2392585196878</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X46" t="n">
-        <v>260.2392585196878</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.2392585196878</v>
+        <v>419.8455905372281</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996775</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>372.3560009609925</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223666</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>180.8033201453151</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918563</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>94.72888660085714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725692</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194302</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>354.1197822338756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003852</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>447.9802256040016</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730268</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>128.4257434817933</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504499</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11378,7 +11378,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>161.8429954306982</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>295.6775549071407</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>59.40616540829446</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>92.88627525581273</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>132.3311100301909</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
@@ -23439,7 +23439,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617341</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>42.01973253337192</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>113.2035016350178</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>267.9097042930623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>61.77024252613192</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>97.39144430711912</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>162.8457123602385</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>27.65395711043897</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617341</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407323</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
         <v>213.8779974765521</v>
@@ -23709,7 +23709,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>62.15471326275235</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.4184586216305</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>164.5930341648276</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>25.71133221314628</v>
       </c>
       <c r="U18" t="n">
-        <v>66.55691803568334</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>21.97946373578843</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
         <v>225.4598605480533</v>
@@ -23949,13 +23949,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>105.8250632127044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>88.66299938633645</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -24022,16 +24022,16 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>88.99356486687466</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>53.35061880807848</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
-        <v>134.8983478333392</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
         <v>52.22830032617343</v>
@@ -24174,16 +24174,16 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>25.55349394822346</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>314.5333413552807</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>63.9647016501506</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>39.62607740540724</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>178.6906532527611</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24414,22 +24414,22 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>212.6197173962968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.9794379230757</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>188.1180267782191</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>97.39144430711944</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24533,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>53.35061880807839</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>56.45169394398553</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>200.7880594838117</v>
       </c>
       <c r="T28" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>242.8101086006033</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>99.41724105225023</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>141.3464342174088</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>127.2750392816566</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24858,10 +24858,10 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>75.00553866371624</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>166.4027044710487</v>
       </c>
       <c r="T31" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>135.4431681396727</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>102.9739763058616</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>21.7414833360074</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.19437133027517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,7 +25128,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>178.2202692317593</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.534528757355929</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>306.9868854631013</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>40.31804732306577</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,13 +25329,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>47.62527955779952</v>
+        <v>118.3415869345208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25396,22 +25396,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>135.9250226571903</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>21.12752286474574</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>101.317675027284</v>
       </c>
       <c r="H39" t="n">
         <v>105.5335559456492</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>154.319275032048</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25605,19 +25605,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.22605594635607</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
@@ -25687,16 +25687,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>167.4058462225976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>237.2401926406888</v>
       </c>
     </row>
     <row r="42">
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>61.77024252613234</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>37.36811375908341</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>2.862852616224416</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
@@ -25842,16 +25842,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>295.6775549071412</v>
+        <v>307.9614770012467</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>105.5335559456492</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>158.3910720113376</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>104.5378647441042</v>
+        <v>103.5823369693637</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26070,13 +26070,13 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632410.5772101806</v>
+        <v>632410.5772101805</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632410.5772101807</v>
+        <v>632410.5772101806</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632410.5772101806</v>
+        <v>632410.5772101807</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632410.5772101807</v>
+        <v>632410.5772101806</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632410.5772101805</v>
+        <v>632410.5772101807</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632410.5772101808</v>
+        <v>632410.5772101805</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632410.5772101805</v>
+        <v>632410.5772101806</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632410.5772101806</v>
+        <v>632410.5772101805</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632410.5772101805</v>
+        <v>632410.5772101806</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>325370.8721489957</v>
+        <v>325370.8721489955</v>
       </c>
       <c r="F2" t="n">
         <v>325370.8721489956</v>
       </c>
       <c r="G2" t="n">
+        <v>325370.8721489955</v>
+      </c>
+      <c r="H2" t="n">
+        <v>325370.8721489956</v>
+      </c>
+      <c r="I2" t="n">
         <v>325370.8721489957</v>
       </c>
-      <c r="H2" t="n">
-        <v>325370.8721489955</v>
-      </c>
-      <c r="I2" t="n">
-        <v>325370.8721489955</v>
-      </c>
       <c r="J2" t="n">
-        <v>325370.8721489955</v>
+        <v>325370.8721489957</v>
       </c>
       <c r="K2" t="n">
-        <v>325370.8721489955</v>
+        <v>325370.8721489954</v>
       </c>
       <c r="L2" t="n">
         <v>325370.8721489955</v>
       </c>
       <c r="M2" t="n">
-        <v>325370.8721489954</v>
+        <v>325370.8721489955</v>
       </c>
       <c r="N2" t="n">
         <v>325370.8721489955</v>
       </c>
       <c r="O2" t="n">
-        <v>325370.8721489956</v>
+        <v>325370.8721489955</v>
       </c>
       <c r="P2" t="n">
         <v>325370.8721489956</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154779</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327803</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910631</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.2452810931</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>9246.781534682701</v>
       </c>
       <c r="F4" t="n">
+        <v>9246.781534682701</v>
+      </c>
+      <c r="G4" t="n">
         <v>9246.781534682699</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>9246.781534682701</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>9246.781534682699</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>9246.781534682701</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>9246.781534682699</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>9246.781534682701</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9246.781534682699</v>
       </c>
       <c r="M4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="N4" t="n">
-        <v>9246.781534682699</v>
+        <v>9246.781534682701</v>
       </c>
       <c r="O4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="P4" t="n">
-        <v>9246.781534682697</v>
+        <v>9246.781534682699</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376168</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26478,13 +26478,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="G5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="H5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76081.72291945864</v>
+        <v>76081.72291945881</v>
       </c>
       <c r="C6" t="n">
         <v>156851.1544510064</v>
       </c>
       <c r="D6" t="n">
-        <v>156851.1544510064</v>
+        <v>156851.1544510066</v>
       </c>
       <c r="E6" t="n">
-        <v>-97447.24653880572</v>
+        <v>-104416.171112538</v>
       </c>
       <c r="F6" t="n">
-        <v>271988.0525939744</v>
+        <v>265019.1280202422</v>
       </c>
       <c r="G6" t="n">
-        <v>271988.0525939746</v>
+        <v>265019.1280202421</v>
       </c>
       <c r="H6" t="n">
-        <v>271988.0525939743</v>
+        <v>265019.1280202422</v>
       </c>
       <c r="I6" t="n">
-        <v>271988.0525939743</v>
+        <v>265019.1280202423</v>
       </c>
       <c r="J6" t="n">
-        <v>208928.1099948681</v>
+        <v>201959.185421136</v>
       </c>
       <c r="K6" t="n">
-        <v>271988.0525939744</v>
+        <v>265019.128020242</v>
       </c>
       <c r="L6" t="n">
-        <v>271988.0525939743</v>
+        <v>265019.1280202421</v>
       </c>
       <c r="M6" t="n">
-        <v>179973.8073128812</v>
+        <v>173004.882739149</v>
       </c>
       <c r="N6" t="n">
-        <v>271988.0525939744</v>
+        <v>265019.1280202421</v>
       </c>
       <c r="O6" t="n">
-        <v>271988.0525939745</v>
+        <v>265019.1280202421</v>
       </c>
       <c r="P6" t="n">
-        <v>271988.0525939745</v>
+        <v>265019.1280202422</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="G3" t="n">
         <v>322.6158759445108</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="G4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="H4" t="n">
         <v>610.2469066570409</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>152.034609247375</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430238</v>
       </c>
       <c r="E2" t="n">
-        <v>191.584972997977</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.0220635847574</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,7 +27514,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>15.59069763800838</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,28 +27618,28 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.5678786463162</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>204.5813593128142</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.38752410983211</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>15.59069763800895</v>
       </c>
     </row>
     <row r="7">
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27827,13 +27827,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>237.3007884161221</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>348.4813272950487</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>335.9462234883513</v>
       </c>
     </row>
     <row r="9">
@@ -27943,13 +27943,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>75.72709062278429</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>21.46746268534241</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31758,40 +31758,40 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548045</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
-        <v>164.9766803203079</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L11" t="n">
-        <v>204.6681601733203</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265084</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
-        <v>218.5211886152592</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P11" t="n">
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517341</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
-        <v>29.55420813300722</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.67739094250089</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806462</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847295</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.5610243747237</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
-        <v>150.6707447040851</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
-        <v>180.4792342229581</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.5793627687646</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858961</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T12" t="n">
-        <v>2.79701877351892</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0456531899921478</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704295</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815277</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
-        <v>17.49530028892529</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.5906704028008</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223824</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526559</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613043</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188946</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501265</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762115</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
         <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548045</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
-        <v>164.9766803203079</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L14" t="n">
-        <v>204.6681601733203</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265084</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
-        <v>218.5211886152592</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P14" t="n">
         <v>186.5027788167461</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517341</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
-        <v>29.55420813300722</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.67739094250089</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806462</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847295</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.5610243747237</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K15" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
-        <v>150.6707447040851</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
-        <v>180.4792342229581</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O15" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.5793627687646</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858961</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T15" t="n">
-        <v>2.79701877351892</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0456531899921478</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704295</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815277</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
-        <v>17.49530028892529</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.5906704028008</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223824</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526559</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613043</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188946</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501265</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762115</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
         <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>90.56571241621367</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>43.28534947792217</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471589</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L11" t="n">
-        <v>386.5629597537835</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846584</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
-        <v>192.919685069526</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.39668221774</v>
+        <v>309.3596570595963</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831783</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
-        <v>416.3693146658878</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185922</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691794</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
         <v>130.7783941571062</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990614</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471589</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L14" t="n">
-        <v>386.5629597537835</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O14" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P14" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.45228430891414</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35737,16 +35737,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>528.4798964831783</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O15" t="n">
-        <v>416.3693146658878</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691794</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
         <v>130.7783941571062</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990614</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
@@ -36454,10 +36454,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>316.9982669508155</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009466</v>
@@ -36685,7 +36685,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009466</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009466</v>
@@ -37399,13 +37399,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P36" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>497.1177477436264</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P39" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>207.3158823613948</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37876,10 +37876,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.12757175471535</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K44" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L44" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537828</v>
       </c>
       <c r="M44" t="n">
         <v>446.9000637909531</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
         <v>382.95671022767</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
